--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2604.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2604.xlsx
@@ -354,7 +354,7 @@
         <v>1.522101192311978</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.875282279087698</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2604.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2604.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7899622865016749</v>
+        <v>1.377411723136902</v>
       </c>
       <c r="B1">
-        <v>1.522101192311978</v>
+        <v>2.150462865829468</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.834510803222656</v>
       </c>
       <c r="D1">
-        <v>1.875282279087698</v>
+        <v>3.529049158096313</v>
       </c>
       <c r="E1">
-        <v>0.9304245528627827</v>
+        <v>1.247287631034851</v>
       </c>
     </row>
   </sheetData>
